--- a/uploads/output_ON_NSCHFDOPPR_20250525_5e5708b5_0e85_4610_8d2f_b995e7442f1f_0_1.xlsx
+++ b/uploads/output_ON_NSCHFDOPPR_20250525_5e5708b5_0e85_4610_8d2f_b995e7442f1f_0_1.xlsx
@@ -6120,12 +6120,12 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
-          <t>40802810920000610304</t>
+          <t>40802810920000606328</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>44525104</t>
+          <t>044525104</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -6152,7 +6152,7 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>125038461</t>
+          <t>0125038461</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr"/>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>125038461</t>
+          <t>0125038461</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -6248,12 +6248,12 @@
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>40802810432410009600</t>
+          <t>40802810432410006974</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>44030786</t>
+          <t>044030786</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
@@ -6374,7 +6374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6385,28 +6385,42 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>СтТовУчНалВсего</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>СтТовБезНДСВсего</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>СумНалВсего</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ВсегоОпл</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>СумНалВсего</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>СтТовУчНалВсего</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>190706.00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>190706.00</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>190706.0</t>
-        </is>
-      </c>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
